--- a/custom-graders/spreadsheet-grader/examples/random_test_data/grader/grader.xlsx
+++ b/custom-graders/spreadsheet-grader/examples/random_test_data/grader/grader.xlsx
@@ -18,10 +18,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
   <si>
-    <t>Constant</t>
+    <t>A (Static)</t>
   </si>
   <si>
-    <t>Random</t>
+    <t>B (Random)</t>
   </si>
   <si>
     <t>Sum</t>
@@ -75,7 +75,7 @@
       <name val="Helvetica"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -100,20 +100,8 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="16"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -228,82 +216,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="14"/>
-      </left>
-      <right style="thin">
-        <color indexed="15"/>
-      </right>
-      <top style="thin">
-        <color indexed="15"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="15"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="15"/>
-      </left>
-      <right style="thin">
-        <color indexed="15"/>
-      </right>
-      <top style="thin">
-        <color indexed="15"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="15"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="15"/>
-      </left>
-      <right style="thin">
-        <color indexed="15"/>
-      </right>
-      <top style="thin">
-        <color indexed="15"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="14"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="14"/>
-      </left>
-      <right style="thin">
-        <color indexed="15"/>
-      </right>
-      <top style="thin">
-        <color indexed="14"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="15"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="15"/>
-      </left>
-      <right style="thin">
-        <color indexed="15"/>
-      </right>
-      <top style="thin">
-        <color indexed="14"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="15"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="15"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
         <color indexed="14"/>
@@ -311,23 +224,30 @@
       <top style="thin">
         <color indexed="14"/>
       </top>
-      <bottom style="thin">
-        <color indexed="15"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="15"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
         <color indexed="14"/>
       </right>
-      <top style="thin">
-        <color indexed="15"/>
-      </top>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="14"/>
+      </right>
+      <top/>
       <bottom style="thin">
-        <color indexed="15"/>
+        <color indexed="14"/>
       </bottom>
       <diagonal/>
     </border>
@@ -337,7 +257,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -353,82 +273,76 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -456,10 +370,7 @@
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
       <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1556,9 +1467,7 @@
   </sheetPr>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.6" defaultRowHeight="12" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
@@ -1587,7 +1496,7 @@
       </c>
       <c r="B2" s="5">
         <f t="shared" si="0" ref="B2:B6">RAND()</f>
-        <v>0.02896328995596269</v>
+        <v>0.3239220619463312</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -1599,7 +1508,7 @@
       </c>
       <c r="B3" s="8">
         <f t="shared" si="0"/>
-        <v>0.7806924625712378</v>
+        <v>0.9606491037302518</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -1611,7 +1520,7 @@
       </c>
       <c r="B4" s="8">
         <f t="shared" si="0"/>
-        <v>0.8210835803724019</v>
+        <v>0.1734503161426597</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -1623,7 +1532,7 @@
       </c>
       <c r="B5" s="8">
         <f t="shared" si="0"/>
-        <v>0.457071544605075</v>
+        <v>0.1555587789378892</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -1635,7 +1544,7 @@
       </c>
       <c r="B6" s="8">
         <f t="shared" si="0"/>
-        <v>0.588875534758089</v>
+        <v>0.4890402691257953</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -1702,137 +1611,137 @@
       <c r="A1" t="s" s="13">
         <v>2</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" ht="20.35" customHeight="1">
-      <c r="A2" s="15">
+      <c r="A2" s="8">
         <f>'_data'!$A2+'_data'!B2</f>
-        <v>1.028963289955963</v>
-      </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
+        <v>1.323922061946331</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" ht="20.35" customHeight="1">
-      <c r="A3" s="15">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" ht="20.35" customHeight="1">
-      <c r="A4" s="15">
+      <c r="A4" s="8">
         <f>'_data'!$A4+'_data'!B4</f>
-        <v>3.821083580372402</v>
-      </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
+        <v>3.17345031614266</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" ht="20.35" customHeight="1">
-      <c r="A5" s="15">
+      <c r="A5" s="8">
         <f>'_data'!$A5+'_data'!B5</f>
-        <v>4.457071544605075</v>
-      </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
+        <v>4.155558778937889</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" ht="20.35" customHeight="1">
-      <c r="A6" s="15">
+      <c r="A6" s="8">
         <f>'_data'!$A6+'_data'!B6</f>
-        <v>5.588875534758089</v>
-      </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
+        <v>5.489040269125796</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
     </row>
     <row r="7" ht="20.35" customHeight="1">
-      <c r="A7" s="16"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
     </row>
     <row r="8" ht="20.35" customHeight="1">
-      <c r="A8" s="16"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
     </row>
     <row r="9" ht="20.35" customHeight="1">
-      <c r="A9" s="16"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
     </row>
     <row r="10" ht="20.35" customHeight="1">
-      <c r="A10" s="16"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" ht="20.35" customHeight="1">
-      <c r="A11" s="16"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
     </row>
     <row r="12" ht="20.35" customHeight="1">
-      <c r="A12" s="16"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
     </row>
     <row r="13" ht="20.35" customHeight="1">
-      <c r="A13" s="16"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
     </row>
     <row r="14" ht="20.35" customHeight="1">
-      <c r="A14" s="16"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
     </row>
     <row r="15" ht="20.35" customHeight="1">
-      <c r="A15" s="16"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
@@ -1848,146 +1757,157 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.4" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.4219" style="17" customWidth="1"/>
-    <col min="2" max="2" width="16.4219" style="17" customWidth="1"/>
-    <col min="3" max="3" width="16.4219" style="17" customWidth="1"/>
-    <col min="4" max="4" width="16.4219" style="17" customWidth="1"/>
-    <col min="5" max="256" width="16.4219" style="17" customWidth="1"/>
+    <col min="1" max="1" width="16.4219" style="14" customWidth="1"/>
+    <col min="2" max="2" width="16.4219" style="14" customWidth="1"/>
+    <col min="3" max="3" width="16.4219" style="14" customWidth="1"/>
+    <col min="4" max="4" width="16.4219" style="14" customWidth="1"/>
+    <col min="5" max="5" width="16.4219" style="14" customWidth="1"/>
+    <col min="6" max="256" width="16.4219" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.55" customHeight="1">
-      <c r="A1" t="s" s="18">
+      <c r="A1" t="s" s="15">
         <v>3</v>
       </c>
-      <c r="B1" t="s" s="18">
+      <c r="B1" t="s" s="15">
         <v>4</v>
       </c>
-      <c r="C1" t="s" s="18">
+      <c r="C1" t="s" s="15">
         <v>5</v>
       </c>
-      <c r="D1" t="s" s="18">
+      <c r="D1" t="s" s="15">
         <v>6</v>
       </c>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" ht="20.55" customHeight="1">
-      <c r="A2" s="19">
+      <c r="A2" s="5">
         <f>'_data'!$A2+'_data'!B2</f>
-        <v>1.028963289955963</v>
-      </c>
-      <c r="B2" s="20">
+        <v>1.323922061946331</v>
+      </c>
+      <c r="B2" s="17">
         <f>'submission'!A2</f>
-        <v>1.028963289955963</v>
-      </c>
-      <c r="C2" s="20">
+        <v>1.323922061946331</v>
+      </c>
+      <c r="C2" s="17">
         <f>IF(A2=B2,1,0)</f>
         <v>1</v>
       </c>
-      <c r="D2" t="s" s="21">
+      <c r="D2" t="s" s="18">
         <f>IF(C2=1,"Correct",IF(C2="Not Found","Not Found",IF(B2&gt;A2,"Too High",IF(B2&lt;A2,"Too Low"))))</f>
         <v>7</v>
       </c>
+      <c r="E2" s="19"/>
     </row>
     <row r="3" ht="20.35" customHeight="1">
-      <c r="A3" s="15">
+      <c r="A3" s="8">
         <f>'_data'!$A3+'_data'!B3</f>
-        <v>2.780692462571238</v>
-      </c>
-      <c r="B3" s="22">
+        <v>2.960649103730252</v>
+      </c>
+      <c r="B3" s="20">
         <f>'submission'!A3</f>
         <v>2</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="20">
         <f>IF(A3=B3,1,0)</f>
         <v>0</v>
       </c>
-      <c r="D3" t="s" s="23">
+      <c r="D3" t="s" s="21">
         <f>IF(C3=1,"Correct",IF(B3="Not Found","Not Found",IF(B3&gt;A3,"Too High",IF(B3&lt;A3,"Too Low"))))</f>
         <v>8</v>
       </c>
+      <c r="E3" s="19"/>
     </row>
     <row r="4" ht="20.35" customHeight="1">
-      <c r="A4" s="15">
+      <c r="A4" s="8">
         <f>'_data'!$A4+'_data'!B4</f>
-        <v>3.821083580372402</v>
-      </c>
-      <c r="B4" s="22">
+        <v>3.17345031614266</v>
+      </c>
+      <c r="B4" s="20">
         <f>'submission'!A4</f>
-        <v>3.821083580372402</v>
-      </c>
-      <c r="C4" s="22">
+        <v>3.17345031614266</v>
+      </c>
+      <c r="C4" s="20">
         <f>IF(A4=B4,1,0)</f>
         <v>1</v>
       </c>
-      <c r="D4" t="s" s="23">
+      <c r="D4" t="s" s="21">
         <f>IF(C4=1,"Correct",IF(B4="Not Found","Not Found",IF(B4&gt;A4,"Too High",IF(B4&lt;A4,"Too Low"))))</f>
         <v>7</v>
       </c>
+      <c r="E4" s="19"/>
     </row>
     <row r="5" ht="20.35" customHeight="1">
-      <c r="A5" s="15">
+      <c r="A5" s="8">
         <f>'_data'!$A5+'_data'!B5</f>
-        <v>4.457071544605075</v>
-      </c>
-      <c r="B5" s="22">
+        <v>4.155558778937889</v>
+      </c>
+      <c r="B5" s="20">
         <f>'submission'!A5</f>
-        <v>4.457071544605075</v>
-      </c>
-      <c r="C5" s="22">
+        <v>4.155558778937889</v>
+      </c>
+      <c r="C5" s="20">
         <f>IF(A5=B5,1,0)</f>
         <v>1</v>
       </c>
-      <c r="D5" t="s" s="23">
+      <c r="D5" t="s" s="21">
         <f>IF(C5=1,"Correct",IF(B5="Not Found","Not Found",IF(B5&gt;A5,"Too High",IF(B5&lt;A5,"Too Low"))))</f>
         <v>7</v>
       </c>
+      <c r="E5" s="19"/>
     </row>
     <row r="6" ht="20.35" customHeight="1">
-      <c r="A6" s="15">
+      <c r="A6" s="8">
         <f>'_data'!$A6+'_data'!B6</f>
-        <v>5.588875534758089</v>
-      </c>
-      <c r="B6" s="22">
+        <v>5.489040269125796</v>
+      </c>
+      <c r="B6" s="20">
         <f>'submission'!A6</f>
-        <v>5.588875534758089</v>
-      </c>
-      <c r="C6" s="22">
+        <v>5.489040269125796</v>
+      </c>
+      <c r="C6" s="20">
         <f>IF(A6=B6,1,0)</f>
         <v>1</v>
       </c>
-      <c r="D6" t="s" s="23">
+      <c r="D6" t="s" s="21">
         <f>IF(C6=1,"Correct",IF(B6="","Row Missing",IF(B6&gt;A6,"Too High",IF(B6&lt;A6,"Too Low"))))</f>
         <v>7</v>
       </c>
+      <c r="E6" s="19"/>
     </row>
     <row r="7" ht="20.35" customHeight="1">
-      <c r="A7" s="16"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="23"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="19"/>
     </row>
     <row r="8" ht="20.35" customHeight="1">
-      <c r="A8" s="16"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="19"/>
     </row>
     <row r="9" ht="20.35" customHeight="1">
-      <c r="A9" s="16"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="19"/>
     </row>
     <row r="10" ht="20.35" customHeight="1">
-      <c r="A10" s="16"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
@@ -2009,86 +1929,86 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.4" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.4219" style="24" customWidth="1"/>
-    <col min="2" max="2" width="16.4219" style="24" customWidth="1"/>
-    <col min="3" max="3" width="16.4219" style="24" customWidth="1"/>
-    <col min="4" max="4" width="16.4219" style="24" customWidth="1"/>
-    <col min="5" max="5" width="16.4219" style="24" customWidth="1"/>
-    <col min="6" max="256" width="16.4219" style="24" customWidth="1"/>
+    <col min="1" max="1" width="16.4219" style="23" customWidth="1"/>
+    <col min="2" max="2" width="16.4219" style="23" customWidth="1"/>
+    <col min="3" max="3" width="16.4219" style="23" customWidth="1"/>
+    <col min="4" max="4" width="16.4219" style="23" customWidth="1"/>
+    <col min="5" max="5" width="16.4219" style="23" customWidth="1"/>
+    <col min="6" max="256" width="16.4219" style="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.55" customHeight="1">
-      <c r="A1" s="25">
+      <c r="A1" s="24">
         <f>AVERAGE('_grader'!C1:C6)</f>
         <v>0.8</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" ht="20.55" customHeight="1">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" ht="20.35" customHeight="1">
-      <c r="A3" s="30"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
     </row>
     <row r="4" ht="20.35" customHeight="1">
-      <c r="A4" s="30"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
     </row>
     <row r="5" ht="20.35" customHeight="1">
-      <c r="A5" s="30"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
     </row>
     <row r="6" ht="20.35" customHeight="1">
-      <c r="A6" s="30"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
     </row>
     <row r="7" ht="20.35" customHeight="1">
-      <c r="A7" s="30"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" ht="20.35" customHeight="1">
-      <c r="A8" s="30"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
     </row>
     <row r="9" ht="20.35" customHeight="1">
-      <c r="A9" s="30"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
     </row>
     <row r="10" ht="20.35" customHeight="1">
-      <c r="A10" s="30"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
@@ -2104,112 +2024,151 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.4" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.4219" style="31" customWidth="1"/>
-    <col min="2" max="2" width="16.4219" style="31" customWidth="1"/>
-    <col min="3" max="3" width="16.4219" style="31" customWidth="1"/>
-    <col min="4" max="4" width="16.4219" style="31" customWidth="1"/>
-    <col min="5" max="256" width="16.4219" style="31" customWidth="1"/>
+    <col min="1" max="1" width="16.4219" style="29" customWidth="1"/>
+    <col min="2" max="2" width="16.4219" style="29" customWidth="1"/>
+    <col min="3" max="3" width="16.4219" style="29" customWidth="1"/>
+    <col min="4" max="4" width="16.4219" style="29" customWidth="1"/>
+    <col min="5" max="5" width="16.4219" style="29" customWidth="1"/>
+    <col min="6" max="6" width="16.4219" style="29" customWidth="1"/>
+    <col min="7" max="256" width="16.4219" style="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.55" customHeight="1">
-      <c r="A1" t="s" s="18">
+      <c r="A1" t="s" s="15">
         <v>4</v>
       </c>
-      <c r="B1" t="s" s="18">
+      <c r="B1" t="s" s="15">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s" s="15">
         <v>6</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" ht="20.55" customHeight="1">
-      <c r="A2" s="19">
+      <c r="A2" s="5">
         <f>'_grader'!B2</f>
-        <v>1.028963289955963</v>
-      </c>
-      <c r="B2" t="s" s="21">
+        <v>1.323922061946331</v>
+      </c>
+      <c r="B2" s="17">
+        <f>'_grader'!A2</f>
+        <v>1.323922061946331</v>
+      </c>
+      <c r="C2" t="s" s="18">
         <f>'_grader'!D2</f>
         <v>7</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" ht="20.35" customHeight="1">
-      <c r="A3" s="15">
+      <c r="A3" s="8">
         <f>'_grader'!B3</f>
         <v>2</v>
       </c>
-      <c r="B3" t="s" s="23">
+      <c r="B3" s="20">
+        <f>'_grader'!A3</f>
+        <v>2.960649103730252</v>
+      </c>
+      <c r="C3" t="s" s="21">
         <f>'_grader'!D3</f>
         <v>8</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="19"/>
     </row>
     <row r="4" ht="20.35" customHeight="1">
-      <c r="A4" s="15">
+      <c r="A4" s="8">
         <f>'_grader'!B4</f>
-        <v>3.821083580372402</v>
-      </c>
-      <c r="B4" t="s" s="23">
+        <v>3.17345031614266</v>
+      </c>
+      <c r="B4" s="20">
+        <f>'_grader'!A4</f>
+        <v>3.17345031614266</v>
+      </c>
+      <c r="C4" t="s" s="21">
         <f>'_grader'!D4</f>
         <v>7</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="19"/>
     </row>
     <row r="5" ht="20.35" customHeight="1">
-      <c r="A5" s="15">
+      <c r="A5" s="8">
         <f>'_grader'!B5</f>
-        <v>4.457071544605075</v>
-      </c>
-      <c r="B5" t="s" s="23">
+        <v>4.155558778937889</v>
+      </c>
+      <c r="B5" s="20">
+        <f>'_grader'!A5</f>
+        <v>4.155558778937889</v>
+      </c>
+      <c r="C5" t="s" s="21">
         <f>'_grader'!D5</f>
         <v>7</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="19"/>
     </row>
     <row r="6" ht="20.35" customHeight="1">
-      <c r="A6" s="15">
+      <c r="A6" s="8">
         <f>'_grader'!B6</f>
-        <v>5.588875534758089</v>
-      </c>
-      <c r="B6" t="s" s="23">
+        <v>5.489040269125796</v>
+      </c>
+      <c r="B6" s="20">
+        <f>'_grader'!A6</f>
+        <v>5.489040269125796</v>
+      </c>
+      <c r="C6" t="s" s="21">
         <f>'_grader'!D6</f>
         <v>7</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="19"/>
     </row>
     <row r="7" ht="20.35" customHeight="1">
-      <c r="A7" s="16"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="19"/>
     </row>
     <row r="8" ht="20.35" customHeight="1">
-      <c r="A8" s="16"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="19"/>
     </row>
     <row r="9" ht="20.35" customHeight="1">
-      <c r="A9" s="16"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="19"/>
     </row>
     <row r="10" ht="20.35" customHeight="1">
-      <c r="A10" s="16"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
